--- a/app/webroot/files/1-Administrador/5 - Consejerias.xlsx
+++ b/app/webroot/files/1-Administrador/5 - Consejerias.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Región Central\Desktop\Archivos Originales Carga a Sistema\Enero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manri\Desktop\TABLAS\1 - Region Occidente\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8528F74-1F2C-4D14-A5B9-7CAE8B718CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FEE53986-C482-44D1-85BF-19005F3BA3BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Consejerias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Enero</t>
   </si>
@@ -68,112 +69,103 @@
     <t>esta_id</t>
   </si>
   <si>
-    <t>UCSFE Dulce Nombre de María CH</t>
-  </si>
-  <si>
-    <t>UCSFI Nueva Trinidad CH</t>
-  </si>
-  <si>
-    <t>UCSFI Nombre de Jesús CH</t>
-  </si>
-  <si>
-    <t>UCSFE La Palma CH</t>
-  </si>
-  <si>
-    <t>UCSFI Tejutla CH</t>
-  </si>
-  <si>
-    <t>UCSFI Azacualpa CH</t>
-  </si>
-  <si>
-    <t>UCSFI La Laguna CH</t>
-  </si>
-  <si>
-    <t>UCSFI Chalatenango CH El Dorado</t>
-  </si>
-  <si>
-    <t>UCSFE Guarjila  CH</t>
-  </si>
-  <si>
-    <t>UCSFI San Fernando CH</t>
-  </si>
-  <si>
-    <t>UCSFI San José Cancasque CH</t>
-  </si>
-  <si>
-    <t>UCSFI San Isidro Labrador CH</t>
-  </si>
-  <si>
-    <t>UCSFI Arcatao CH</t>
-  </si>
-  <si>
-    <t>UCSFI San Antonio los Ranchos CH</t>
-  </si>
-  <si>
-    <t>UCSFI Ojos de Agua CH</t>
-  </si>
-  <si>
-    <t>UCSFI Las Vueltas CH</t>
-  </si>
-  <si>
-    <t>UCSFI Potonico CH</t>
-  </si>
-  <si>
-    <t>UCSFI Agua Caliente CH</t>
-  </si>
-  <si>
-    <t>UCSFI San Francisco Morazan CH</t>
-  </si>
-  <si>
-    <t>UCSFE Concepción Quezaltepeque CH</t>
-  </si>
-  <si>
-    <t>UCSFI Nueva Concepcion CH</t>
-  </si>
-  <si>
-    <t>UCSFI El Paraiso CH</t>
-  </si>
-  <si>
-    <t>UCSFI Chalatenango CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI San José Las Flores CH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFE La Libertad LL Puerto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFE Santa Tecla LL " Dr. Carlos Díaz del Pinal"  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI Ciudad Arce LL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI Colón LL Lourdes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI Jayaque LL "Dr Francisco Lima" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI Jicalapa LL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI Quezaltepeque LL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI San Juan Opico LL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI San Juan Opico LL Sitio El Niño </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSFI Santa Tecla LL " Dr. Alberto Aguilar Rivas"  </t>
+    <t>UCSFI Candelaria de la Frontera SA</t>
+  </si>
+  <si>
+    <t>UCSFB Chalchuapa SA</t>
+  </si>
+  <si>
+    <t>UCSFI Coatepeque SA</t>
+  </si>
+  <si>
+    <t>UCSFI El Congo SA</t>
+  </si>
+  <si>
+    <t>UCSFI Santa Ana SA Dr.Tomás Pineda Martín SA</t>
+  </si>
+  <si>
+    <t>UCSFI Santa Ana SA El Palmar SA</t>
+  </si>
+  <si>
+    <t>UCSFI Santa Ana SA San Rafael SA</t>
+  </si>
+  <si>
+    <t>UCSFI Santa Ana SA Santa Bárbara SA</t>
+  </si>
+  <si>
+    <t>UCSFI Santa Ana SA Santa Lucia SA</t>
+  </si>
+  <si>
+    <t>UCSFB Masahuat SA</t>
+  </si>
+  <si>
+    <t>UCSFB Santiago La Frontera SA</t>
+  </si>
+  <si>
+    <t>UCSFI Metapan SA</t>
+  </si>
+  <si>
+    <t>UCSFI Acajutla SO</t>
+  </si>
+  <si>
+    <t>UCSFI Armenia SO</t>
+  </si>
+  <si>
+    <t>UCSFI Juayua SO</t>
+  </si>
+  <si>
+    <t>UCSFI Nahuizalco SO</t>
+  </si>
+  <si>
+    <t>UCSFI San Julian SO</t>
+  </si>
+  <si>
+    <t>UCSFI Sonsonate SO</t>
+  </si>
+  <si>
+    <t>UCSFI Sonzacate SO</t>
+  </si>
+  <si>
+    <t>UCSFE Izalco SO</t>
+  </si>
+  <si>
+    <t>UCSFI Caluco SO</t>
+  </si>
+  <si>
+    <t>UCSFI Cuisnahuat SO</t>
+  </si>
+  <si>
+    <t>UCSFI Santa Isabel Ishuatan SO</t>
+  </si>
+  <si>
+    <t>UCSFI Santo Domingo de Guzman SO</t>
+  </si>
+  <si>
+    <t>UCSFI Ahuachapan AH</t>
+  </si>
+  <si>
+    <t>UCSFI Atiquizaya AH</t>
+  </si>
+  <si>
+    <t>UCSFI San Francisco Menendez AH Cara Sucia AH</t>
+  </si>
+  <si>
+    <t>UCSFB Guaymango AH</t>
+  </si>
+  <si>
+    <t>UCSFB Jujutla AH</t>
+  </si>
+  <si>
+    <t>UCSFB Jujutla AH Barra de Santiago AH</t>
+  </si>
+  <si>
+    <t>UCSFB Tacuba AH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,18 +557,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91324BA2-0CB7-4947-B63F-73BB2457117A}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="D3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
@@ -631,794 +623,1410 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F4" s="6">
+        <v>120</v>
+      </c>
+      <c r="G4" s="6">
+        <v>120</v>
+      </c>
+      <c r="H4" s="6">
+        <v>120</v>
+      </c>
+      <c r="I4" s="6">
+        <v>120</v>
+      </c>
+      <c r="J4" s="6">
+        <v>120</v>
+      </c>
+      <c r="K4" s="6">
+        <v>120</v>
+      </c>
+      <c r="L4" s="6">
+        <v>120</v>
+      </c>
+      <c r="M4" s="6">
+        <v>120</v>
+      </c>
+      <c r="N4" s="6">
+        <v>120</v>
+      </c>
+      <c r="O4" s="6">
+        <v>120</v>
+      </c>
+      <c r="P4" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F5" s="6">
+        <v>120</v>
+      </c>
+      <c r="G5" s="6">
+        <v>120</v>
+      </c>
+      <c r="H5" s="6">
+        <v>120</v>
+      </c>
+      <c r="I5" s="6">
+        <v>120</v>
+      </c>
+      <c r="J5" s="6">
+        <v>120</v>
+      </c>
+      <c r="K5" s="6">
+        <v>120</v>
+      </c>
+      <c r="L5" s="6">
+        <v>120</v>
+      </c>
+      <c r="M5" s="6">
+        <v>120</v>
+      </c>
+      <c r="N5" s="6">
+        <v>120</v>
+      </c>
+      <c r="O5" s="6">
+        <v>120</v>
+      </c>
+      <c r="P5" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F6" s="6">
+        <v>120</v>
+      </c>
+      <c r="G6" s="6">
+        <v>120</v>
+      </c>
+      <c r="H6" s="6">
+        <v>120</v>
+      </c>
+      <c r="I6" s="6">
+        <v>120</v>
+      </c>
+      <c r="J6" s="6">
+        <v>120</v>
+      </c>
+      <c r="K6" s="6">
+        <v>120</v>
+      </c>
+      <c r="L6" s="6">
+        <v>120</v>
+      </c>
+      <c r="M6" s="6">
+        <v>120</v>
+      </c>
+      <c r="N6" s="6">
+        <v>120</v>
+      </c>
+      <c r="O6" s="6">
+        <v>120</v>
+      </c>
+      <c r="P6" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F7" s="6">
+        <v>120</v>
+      </c>
+      <c r="G7" s="6">
+        <v>120</v>
+      </c>
+      <c r="H7" s="6">
+        <v>120</v>
+      </c>
+      <c r="I7" s="6">
+        <v>120</v>
+      </c>
+      <c r="J7" s="6">
+        <v>120</v>
+      </c>
+      <c r="K7" s="6">
+        <v>120</v>
+      </c>
+      <c r="L7" s="6">
+        <v>120</v>
+      </c>
+      <c r="M7" s="6">
+        <v>120</v>
+      </c>
+      <c r="N7" s="6">
+        <v>120</v>
+      </c>
+      <c r="O7" s="6">
+        <v>120</v>
+      </c>
+      <c r="P7" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F8" s="6">
+        <v>120</v>
+      </c>
+      <c r="G8" s="6">
+        <v>120</v>
+      </c>
+      <c r="H8" s="6">
+        <v>120</v>
+      </c>
+      <c r="I8" s="6">
+        <v>120</v>
+      </c>
+      <c r="J8" s="6">
+        <v>120</v>
+      </c>
+      <c r="K8" s="6">
+        <v>120</v>
+      </c>
+      <c r="L8" s="6">
+        <v>120</v>
+      </c>
+      <c r="M8" s="6">
+        <v>120</v>
+      </c>
+      <c r="N8" s="6">
+        <v>120</v>
+      </c>
+      <c r="O8" s="6">
+        <v>120</v>
+      </c>
+      <c r="P8" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F9" s="6">
+        <v>120</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6">
+        <v>120</v>
+      </c>
+      <c r="I9" s="6">
+        <v>120</v>
+      </c>
+      <c r="J9" s="6">
+        <v>120</v>
+      </c>
+      <c r="K9" s="6">
+        <v>120</v>
+      </c>
+      <c r="L9" s="6">
+        <v>120</v>
+      </c>
+      <c r="M9" s="6">
+        <v>120</v>
+      </c>
+      <c r="N9" s="6">
+        <v>120</v>
+      </c>
+      <c r="O9" s="6">
+        <v>120</v>
+      </c>
+      <c r="P9" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F10" s="6">
+        <v>120</v>
+      </c>
+      <c r="G10" s="6">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6">
+        <v>120</v>
+      </c>
+      <c r="I10" s="6">
+        <v>120</v>
+      </c>
+      <c r="J10" s="6">
+        <v>120</v>
+      </c>
+      <c r="K10" s="6">
+        <v>120</v>
+      </c>
+      <c r="L10" s="6">
+        <v>120</v>
+      </c>
+      <c r="M10" s="6">
+        <v>120</v>
+      </c>
+      <c r="N10" s="6">
+        <v>120</v>
+      </c>
+      <c r="O10" s="6">
+        <v>120</v>
+      </c>
+      <c r="P10" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F11" s="6">
+        <v>120</v>
+      </c>
+      <c r="G11" s="6">
+        <v>120</v>
+      </c>
+      <c r="H11" s="6">
+        <v>120</v>
+      </c>
+      <c r="I11" s="6">
+        <v>120</v>
+      </c>
+      <c r="J11" s="6">
+        <v>120</v>
+      </c>
+      <c r="K11" s="6">
+        <v>120</v>
+      </c>
+      <c r="L11" s="6">
+        <v>120</v>
+      </c>
+      <c r="M11" s="6">
+        <v>120</v>
+      </c>
+      <c r="N11" s="6">
+        <v>120</v>
+      </c>
+      <c r="O11" s="6">
+        <v>120</v>
+      </c>
+      <c r="P11" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="5">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>120</v>
+      </c>
+      <c r="G12" s="6">
+        <v>120</v>
+      </c>
+      <c r="H12" s="6">
+        <v>120</v>
+      </c>
+      <c r="I12" s="6">
+        <v>120</v>
+      </c>
+      <c r="J12" s="6">
+        <v>120</v>
+      </c>
+      <c r="K12" s="6">
+        <v>120</v>
+      </c>
+      <c r="L12" s="6">
+        <v>120</v>
+      </c>
+      <c r="M12" s="6">
+        <v>120</v>
+      </c>
+      <c r="N12" s="6">
+        <v>120</v>
+      </c>
+      <c r="O12" s="6">
+        <v>120</v>
+      </c>
+      <c r="P12" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="6">
+        <v>120</v>
+      </c>
+      <c r="G13" s="6">
+        <v>120</v>
+      </c>
+      <c r="H13" s="6">
+        <v>120</v>
+      </c>
+      <c r="I13" s="6">
+        <v>120</v>
+      </c>
+      <c r="J13" s="6">
+        <v>120</v>
+      </c>
+      <c r="K13" s="6">
+        <v>120</v>
+      </c>
+      <c r="L13" s="6">
+        <v>120</v>
+      </c>
+      <c r="M13" s="6">
+        <v>120</v>
+      </c>
+      <c r="N13" s="6">
+        <v>120</v>
+      </c>
+      <c r="O13" s="6">
+        <v>120</v>
+      </c>
+      <c r="P13" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="5">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="6">
+        <v>120</v>
+      </c>
+      <c r="G14" s="6">
+        <v>120</v>
+      </c>
+      <c r="H14" s="6">
+        <v>120</v>
+      </c>
+      <c r="I14" s="6">
+        <v>120</v>
+      </c>
+      <c r="J14" s="6">
+        <v>120</v>
+      </c>
+      <c r="K14" s="6">
+        <v>120</v>
+      </c>
+      <c r="L14" s="6">
+        <v>120</v>
+      </c>
+      <c r="M14" s="6">
+        <v>120</v>
+      </c>
+      <c r="N14" s="6">
+        <v>120</v>
+      </c>
+      <c r="O14" s="6">
+        <v>120</v>
+      </c>
+      <c r="P14" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="6">
+        <v>120</v>
+      </c>
+      <c r="G15" s="6">
+        <v>120</v>
+      </c>
+      <c r="H15" s="6">
+        <v>120</v>
+      </c>
+      <c r="I15" s="6">
+        <v>120</v>
+      </c>
+      <c r="J15" s="6">
+        <v>120</v>
+      </c>
+      <c r="K15" s="6">
+        <v>120</v>
+      </c>
+      <c r="L15" s="6">
+        <v>120</v>
+      </c>
+      <c r="M15" s="6">
+        <v>120</v>
+      </c>
+      <c r="N15" s="6">
+        <v>120</v>
+      </c>
+      <c r="O15" s="6">
+        <v>120</v>
+      </c>
+      <c r="P15" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="6">
+        <v>120</v>
+      </c>
+      <c r="G16" s="6">
+        <v>120</v>
+      </c>
+      <c r="H16" s="6">
+        <v>120</v>
+      </c>
+      <c r="I16" s="6">
+        <v>120</v>
+      </c>
+      <c r="J16" s="6">
+        <v>120</v>
+      </c>
+      <c r="K16" s="6">
+        <v>120</v>
+      </c>
+      <c r="L16" s="6">
+        <v>120</v>
+      </c>
+      <c r="M16" s="6">
+        <v>120</v>
+      </c>
+      <c r="N16" s="6">
+        <v>120</v>
+      </c>
+      <c r="O16" s="6">
+        <v>120</v>
+      </c>
+      <c r="P16" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F17" s="6">
+        <v>120</v>
+      </c>
+      <c r="G17" s="6">
+        <v>120</v>
+      </c>
+      <c r="H17" s="6">
+        <v>120</v>
+      </c>
+      <c r="I17" s="6">
+        <v>120</v>
+      </c>
+      <c r="J17" s="6">
+        <v>120</v>
+      </c>
+      <c r="K17" s="6">
+        <v>120</v>
+      </c>
+      <c r="L17" s="6">
+        <v>120</v>
+      </c>
+      <c r="M17" s="6">
+        <v>120</v>
+      </c>
+      <c r="N17" s="6">
+        <v>120</v>
+      </c>
+      <c r="O17" s="6">
+        <v>120</v>
+      </c>
+      <c r="P17" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="6">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6">
+        <v>120</v>
+      </c>
+      <c r="H18" s="6">
+        <v>120</v>
+      </c>
+      <c r="I18" s="6">
+        <v>120</v>
+      </c>
+      <c r="J18" s="6">
+        <v>120</v>
+      </c>
+      <c r="K18" s="6">
+        <v>120</v>
+      </c>
+      <c r="L18" s="6">
+        <v>120</v>
+      </c>
+      <c r="M18" s="6">
+        <v>120</v>
+      </c>
+      <c r="N18" s="6">
+        <v>120</v>
+      </c>
+      <c r="O18" s="6">
+        <v>120</v>
+      </c>
+      <c r="P18" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F19" s="6">
+        <v>120</v>
+      </c>
+      <c r="G19" s="6">
+        <v>120</v>
+      </c>
+      <c r="H19" s="6">
+        <v>120</v>
+      </c>
+      <c r="I19" s="6">
+        <v>120</v>
+      </c>
+      <c r="J19" s="6">
+        <v>120</v>
+      </c>
+      <c r="K19" s="6">
+        <v>120</v>
+      </c>
+      <c r="L19" s="6">
+        <v>120</v>
+      </c>
+      <c r="M19" s="6">
+        <v>120</v>
+      </c>
+      <c r="N19" s="6">
+        <v>120</v>
+      </c>
+      <c r="O19" s="6">
+        <v>120</v>
+      </c>
+      <c r="P19" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F20" s="6">
+        <v>120</v>
+      </c>
+      <c r="G20" s="6">
+        <v>120</v>
+      </c>
+      <c r="H20" s="6">
+        <v>120</v>
+      </c>
+      <c r="I20" s="6">
+        <v>120</v>
+      </c>
+      <c r="J20" s="6">
+        <v>120</v>
+      </c>
+      <c r="K20" s="6">
+        <v>120</v>
+      </c>
+      <c r="L20" s="6">
+        <v>120</v>
+      </c>
+      <c r="M20" s="6">
+        <v>120</v>
+      </c>
+      <c r="N20" s="6">
+        <v>120</v>
+      </c>
+      <c r="O20" s="6">
+        <v>120</v>
+      </c>
+      <c r="P20" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="5">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F21" s="6">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6">
+        <v>120</v>
+      </c>
+      <c r="H21" s="6">
+        <v>120</v>
+      </c>
+      <c r="I21" s="6">
+        <v>120</v>
+      </c>
+      <c r="J21" s="6">
+        <v>120</v>
+      </c>
+      <c r="K21" s="6">
+        <v>120</v>
+      </c>
+      <c r="L21" s="6">
+        <v>120</v>
+      </c>
+      <c r="M21" s="6">
+        <v>120</v>
+      </c>
+      <c r="N21" s="6">
+        <v>120</v>
+      </c>
+      <c r="O21" s="6">
+        <v>120</v>
+      </c>
+      <c r="P21" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="5">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F22" s="6">
+        <v>120</v>
+      </c>
+      <c r="G22" s="6">
+        <v>120</v>
+      </c>
+      <c r="H22" s="6">
+        <v>120</v>
+      </c>
+      <c r="I22" s="6">
+        <v>120</v>
+      </c>
+      <c r="J22" s="6">
+        <v>120</v>
+      </c>
+      <c r="K22" s="6">
+        <v>120</v>
+      </c>
+      <c r="L22" s="6">
+        <v>120</v>
+      </c>
+      <c r="M22" s="6">
+        <v>120</v>
+      </c>
+      <c r="N22" s="6">
+        <v>120</v>
+      </c>
+      <c r="O22" s="6">
+        <v>120</v>
+      </c>
+      <c r="P22" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="5">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="6">
+        <v>120</v>
+      </c>
+      <c r="G23" s="6">
+        <v>120</v>
+      </c>
+      <c r="H23" s="6">
+        <v>120</v>
+      </c>
+      <c r="I23" s="6">
+        <v>120</v>
+      </c>
+      <c r="J23" s="6">
+        <v>120</v>
+      </c>
+      <c r="K23" s="6">
+        <v>120</v>
+      </c>
+      <c r="L23" s="6">
+        <v>120</v>
+      </c>
+      <c r="M23" s="6">
+        <v>120</v>
+      </c>
+      <c r="N23" s="6">
+        <v>120</v>
+      </c>
+      <c r="O23" s="6">
+        <v>120</v>
+      </c>
+      <c r="P23" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="5">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F24" s="6">
+        <v>120</v>
+      </c>
+      <c r="G24" s="6">
+        <v>120</v>
+      </c>
+      <c r="H24" s="6">
+        <v>120</v>
+      </c>
+      <c r="I24" s="6">
+        <v>120</v>
+      </c>
+      <c r="J24" s="6">
+        <v>120</v>
+      </c>
+      <c r="K24" s="6">
+        <v>120</v>
+      </c>
+      <c r="L24" s="6">
+        <v>120</v>
+      </c>
+      <c r="M24" s="6">
+        <v>120</v>
+      </c>
+      <c r="N24" s="6">
+        <v>120</v>
+      </c>
+      <c r="O24" s="6">
+        <v>120</v>
+      </c>
+      <c r="P24" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C25" s="5">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F25" s="6">
+        <v>120</v>
+      </c>
+      <c r="G25" s="6">
+        <v>120</v>
+      </c>
+      <c r="H25" s="6">
+        <v>120</v>
+      </c>
+      <c r="I25" s="6">
+        <v>120</v>
+      </c>
+      <c r="J25" s="6">
+        <v>120</v>
+      </c>
+      <c r="K25" s="6">
+        <v>120</v>
+      </c>
+      <c r="L25" s="6">
+        <v>120</v>
+      </c>
+      <c r="M25" s="6">
+        <v>120</v>
+      </c>
+      <c r="N25" s="6">
+        <v>120</v>
+      </c>
+      <c r="O25" s="6">
+        <v>120</v>
+      </c>
+      <c r="P25" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F26" s="6">
+        <v>120</v>
+      </c>
+      <c r="G26" s="6">
+        <v>120</v>
+      </c>
+      <c r="H26" s="6">
+        <v>120</v>
+      </c>
+      <c r="I26" s="6">
+        <v>120</v>
+      </c>
+      <c r="J26" s="6">
+        <v>120</v>
+      </c>
+      <c r="K26" s="6">
+        <v>120</v>
+      </c>
+      <c r="L26" s="6">
+        <v>120</v>
+      </c>
+      <c r="M26" s="6">
+        <v>120</v>
+      </c>
+      <c r="N26" s="6">
+        <v>120</v>
+      </c>
+      <c r="O26" s="6">
+        <v>120</v>
+      </c>
+      <c r="P26" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C27" s="5">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F27" s="6">
+        <v>120</v>
+      </c>
+      <c r="G27" s="6">
+        <v>120</v>
+      </c>
+      <c r="H27" s="6">
+        <v>120</v>
+      </c>
+      <c r="I27" s="6">
+        <v>120</v>
+      </c>
+      <c r="J27" s="6">
+        <v>120</v>
+      </c>
+      <c r="K27" s="6">
+        <v>120</v>
+      </c>
+      <c r="L27" s="6">
+        <v>120</v>
+      </c>
+      <c r="M27" s="6">
+        <v>120</v>
+      </c>
+      <c r="N27" s="6">
+        <v>120</v>
+      </c>
+      <c r="O27" s="6">
+        <v>120</v>
+      </c>
+      <c r="P27" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" s="5">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F28" s="6">
+        <v>120</v>
+      </c>
+      <c r="G28" s="6">
+        <v>120</v>
+      </c>
+      <c r="H28" s="6">
+        <v>120</v>
+      </c>
+      <c r="I28" s="6">
+        <v>120</v>
+      </c>
+      <c r="J28" s="6">
+        <v>120</v>
+      </c>
+      <c r="K28" s="6">
+        <v>120</v>
+      </c>
+      <c r="L28" s="6">
+        <v>120</v>
+      </c>
+      <c r="M28" s="6">
+        <v>120</v>
+      </c>
+      <c r="N28" s="6">
+        <v>120</v>
+      </c>
+      <c r="O28" s="6">
+        <v>120</v>
+      </c>
+      <c r="P28" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C29" s="5">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F29" s="6">
+        <v>120</v>
+      </c>
+      <c r="G29" s="6">
+        <v>120</v>
+      </c>
+      <c r="H29" s="6">
+        <v>120</v>
+      </c>
+      <c r="I29" s="6">
+        <v>120</v>
+      </c>
+      <c r="J29" s="6">
+        <v>120</v>
+      </c>
+      <c r="K29" s="6">
+        <v>120</v>
+      </c>
+      <c r="L29" s="6">
+        <v>120</v>
+      </c>
+      <c r="M29" s="6">
+        <v>120</v>
+      </c>
+      <c r="N29" s="6">
+        <v>120</v>
+      </c>
+      <c r="O29" s="6">
+        <v>120</v>
+      </c>
+      <c r="P29" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C30" s="5">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F30" s="6">
+        <v>120</v>
+      </c>
+      <c r="G30" s="6">
+        <v>120</v>
+      </c>
+      <c r="H30" s="6">
+        <v>120</v>
+      </c>
+      <c r="I30" s="6">
+        <v>120</v>
+      </c>
+      <c r="J30" s="6">
+        <v>120</v>
+      </c>
+      <c r="K30" s="6">
+        <v>120</v>
+      </c>
+      <c r="L30" s="6">
+        <v>120</v>
+      </c>
+      <c r="M30" s="6">
+        <v>120</v>
+      </c>
+      <c r="N30" s="6">
+        <v>120</v>
+      </c>
+      <c r="O30" s="6">
+        <v>120</v>
+      </c>
+      <c r="P30" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C31" s="5">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F31" s="6">
+        <v>120</v>
+      </c>
+      <c r="G31" s="6">
+        <v>120</v>
+      </c>
+      <c r="H31" s="6">
+        <v>120</v>
+      </c>
+      <c r="I31" s="6">
+        <v>120</v>
+      </c>
+      <c r="J31" s="6">
+        <v>120</v>
+      </c>
+      <c r="K31" s="6">
+        <v>120</v>
+      </c>
+      <c r="L31" s="6">
+        <v>120</v>
+      </c>
+      <c r="M31" s="6">
+        <v>120</v>
+      </c>
+      <c r="N31" s="6">
+        <v>120</v>
+      </c>
+      <c r="O31" s="6">
+        <v>120</v>
+      </c>
+      <c r="P31" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C32" s="5">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F32" s="6">
+        <v>120</v>
+      </c>
+      <c r="G32" s="6">
+        <v>120</v>
+      </c>
+      <c r="H32" s="6">
+        <v>120</v>
+      </c>
+      <c r="I32" s="6">
+        <v>120</v>
+      </c>
+      <c r="J32" s="6">
+        <v>120</v>
+      </c>
+      <c r="K32" s="6">
+        <v>120</v>
+      </c>
+      <c r="L32" s="6">
+        <v>120</v>
+      </c>
+      <c r="M32" s="6">
+        <v>120</v>
+      </c>
+      <c r="N32" s="6">
+        <v>120</v>
+      </c>
+      <c r="O32" s="6">
+        <v>120</v>
+      </c>
+      <c r="P32" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C33" s="5">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F33" s="6">
+        <v>120</v>
+      </c>
+      <c r="G33" s="6">
+        <v>120</v>
+      </c>
+      <c r="H33" s="6">
+        <v>120</v>
+      </c>
+      <c r="I33" s="6">
+        <v>120</v>
+      </c>
+      <c r="J33" s="6">
+        <v>120</v>
+      </c>
+      <c r="K33" s="6">
+        <v>120</v>
+      </c>
+      <c r="L33" s="6">
+        <v>120</v>
+      </c>
+      <c r="M33" s="6">
+        <v>120</v>
+      </c>
+      <c r="N33" s="6">
+        <v>120</v>
+      </c>
+      <c r="O33" s="6">
+        <v>120</v>
+      </c>
+      <c r="P33" s="6">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C34" s="5">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="5">
-        <v>83</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C36" s="5">
-        <v>84</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C37" s="5">
-        <v>85</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F34" s="6">
+        <v>120</v>
+      </c>
+      <c r="G34" s="6">
+        <v>120</v>
+      </c>
+      <c r="H34" s="6">
+        <v>120</v>
+      </c>
+      <c r="I34" s="6">
+        <v>120</v>
+      </c>
+      <c r="J34" s="6">
+        <v>120</v>
+      </c>
+      <c r="K34" s="6">
+        <v>120</v>
+      </c>
+      <c r="L34" s="6">
+        <v>120</v>
+      </c>
+      <c r="M34" s="6">
+        <v>120</v>
+      </c>
+      <c r="N34" s="6">
+        <v>120</v>
+      </c>
+      <c r="O34" s="6">
+        <v>120</v>
+      </c>
+      <c r="P34" s="6">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="j27eMVmcxCDIOcQ7Gvrk0hz4g/HjmitC3tBzHL3AlTeZ62MkgXY0ONt1QzMUgN5PvckEACjLyf7NhE+7J4KIsQ==" saltValue="myRyVIoxHfwacsGONcSxxw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6AhbUDCBT0BpO8wM5tuk/CPCj9Up+sAGb87q9UepLWDafdlmBtI/KJanmvyC44tApeKhsAxZalrXFx5bvbnVRg==" saltValue="XuzfgwHfluWzQFVepdqPJg==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <protectedRanges>
-    <protectedRange sqref="E4:P37" name="Rango1"/>
+    <protectedRange sqref="E4:P34" name="Rango1"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
